--- a/paul.beard.for.hire/Data/Work History Summary.xlsx
+++ b/paul.beard.for.hire/Data/Work History Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulb\R\Projects\paul.beard.for.hire\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulb\R\Projects\paulbeardactuarial.github.io\paul.beard.for.hire\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31A4B6A-0DA2-4FCB-ADC3-FF9491B32102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1239C7-DE3B-4D5B-B305-8E41AA59D6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TeamsTasks" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={AFD3B207-5223-4811-B274-A67714530234}</author>
+    <author>tc={A1285F6F-A89F-4292-9468-9CED904BF327}</author>
   </authors>
   <commentList>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{AFD3B207-5223-4811-B274-A67714530234}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{A1285F6F-A89F-4292-9468-9CED904BF327}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="53">
   <si>
     <t>Team</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>Model Migration to R</t>
+  </si>
+  <si>
+    <t>Python</t>
   </si>
 </sst>
 </file>
@@ -498,7 +501,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="M1" dT="2024-07-15T19:29:04.13" personId="{CA7B08D5-C7C9-4C10-A16A-1C9083EB1D41}" id="{AFD3B207-5223-4811-B274-A67714530234}">
+  <threadedComment ref="N1" dT="2024-07-15T19:29:04.13" personId="{CA7B08D5-C7C9-4C10-A16A-1C9083EB1D41}" id="{A1285F6F-A89F-4292-9468-9CED904BF327}">
     <text>Up to half-year</text>
   </threadedComment>
 </ThreadedComments>
@@ -511,7 +514,7 @@
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -521,7 +524,7 @@
     <col min="2" max="5" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,7 +544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -561,7 +564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -581,7 +584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -601,7 +604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -621,7 +624,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -641,7 +644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -661,7 +664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -681,7 +684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -701,7 +704,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -721,7 +724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -741,7 +744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -761,7 +764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -781,7 +784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -801,7 +804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -821,7 +824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -841,7 +844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -861,7 +864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -881,7 +884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -901,7 +904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -921,7 +924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -941,7 +944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -961,7 +964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -981,7 +984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1001,7 +1004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -1051,15 +1054,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -1099,8 +1102,11 @@
       <c r="M1" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="N1" s="1">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -1140,8 +1146,11 @@
       <c r="M2" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -1181,8 +1190,11 @@
       <c r="M3" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
@@ -1222,8 +1234,11 @@
       <c r="M4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -1263,8 +1278,11 @@
       <c r="M5" s="1">
         <v>1800</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="N5" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
@@ -1304,8 +1322,11 @@
       <c r="M6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -1344,6 +1365,53 @@
       </c>
       <c r="M7" s="1">
         <v>20</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
